--- a/executor-misc/TODO.xlsx
+++ b/executor-misc/TODO.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Actiune</t>
   </si>
@@ -53,6 +53,9 @@
     <t>De sters logs si dist de pe source control</t>
   </si>
   <si>
+    <t>Done</t>
+  </si>
+  <si>
     <t>De testat escaping pentru Qprocess, eventual folosit “arguments”</t>
   </si>
   <si>
@@ -63,6 +66,12 @@
   </si>
   <si>
     <t>De schimbat interfata lui OrchestratorRequestsHandler</t>
+  </si>
+  <si>
+    <t>Calea catre executabil e trimisa acum de orchestrator, nu mai trebuie incarcata din baza de date</t>
+  </si>
+  <si>
+    <t>De sters Qjson</t>
   </si>
 </sst>
 </file>
@@ -104,12 +113,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF66"/>
+        <bgColor rgb="FF00FFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -146,7 +161,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -164,6 +179,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -180,6 +199,7 @@
     <dxf>
       <font>
         <sz val="11"/>
+        <color rgb="FF000000"/>
         <name val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
@@ -191,6 +211,66 @@
       </fill>
     </dxf>
   </dxfs>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF66"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -199,10 +279,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -283,25 +363,41 @@
       <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="C8" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/executor-misc/TODO.xlsx
+++ b/executor-misc/TODO.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects_CS_Romania\2015\2_Sen2Agri\7_Projects\Sen2Agri_Repository\sen2agri\executor-misc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>Actiune</t>
   </si>
@@ -29,9 +33,6 @@
     <t>De actualizat cand va fi finalizata interfata cu PersistenceManager-ul pentru trimiterea de informatii de executie</t>
   </si>
   <si>
-    <t>NS</t>
-  </si>
-  <si>
     <t>PersistenceManagerul trebuie sa ofere calea pentru ProcessorWrapper (executor.wrapper_path)</t>
   </si>
   <si>
@@ -53,9 +54,6 @@
     <t>De sters logs si dist de pe source control</t>
   </si>
   <si>
-    <t>Done</t>
-  </si>
-  <si>
     <t>De testat escaping pentru Qprocess, eventual folosit “arguments”</t>
   </si>
   <si>
@@ -72,16 +70,19 @@
   </si>
   <si>
     <t>De sters Qjson</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problema utilizarii "arguments" este ca protectia este rupta de catre slurm deci se poate aplica doar intre Executor si slurm </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -90,22 +91,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -128,7 +114,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -136,73 +122,133 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <name val="Calibri"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <name val="Calibri"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <name val="Calibri"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <name val="Calibri"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <name val="Calibri"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
       </font>
       <fill>
         <patternFill>
@@ -211,6 +257,7 @@
       </fill>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -269,32 +316,306 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.9954954954955"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="102.855855855856"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.2792792792793"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="91.509009009009"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.64414414414414"/>
+    <col min="1" max="1" width="4"/>
+    <col min="2" max="2" width="102.85546875"/>
+    <col min="3" max="3" width="16.28515625" style="1"/>
+    <col min="4" max="4" width="91.5703125"/>
+    <col min="5" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -305,113 +626,180 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="0" t="s">
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="3" t="s">
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="3" t="s">
+      <c r="C11" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="3" t="s">
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="3" t="s">
+      <c r="C13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
-        <v>18</v>
-      </c>
       <c r="C14" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C34">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+  <conditionalFormatting sqref="C2 C4:C5 C8:C10 C12 C14:C34">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>"NS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+      <formula>"NS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+      <formula>"NS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+      <formula>"NS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+      <formula>"NS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"NS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C14">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>